--- a/vibraITR_tables.xlsx
+++ b/vibraITR_tables.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DFC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRE_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DFC_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,46 +425,1299 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>62.234</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>49.000</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>47.781</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>48.453</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>62.234</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>49.000</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>47.781</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>48.453</t>
+      <c r="H1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No ta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31.03.2025;31.12.2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.03.2025;31.12.2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Passivo Nota</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31.03.2025;31.12.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>31.03.2025;31.12.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Circulante</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Circulante</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Caixa e equivalentes de caixa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.4731;0.480</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.019;9.316</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fornecedores;13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.919;2.432</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2.394;2.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caixa e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>70;-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Financiamento de fornecimento de produtos;14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>267;-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>267;-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Debêntures</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34;-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Empréstimos e financiamentos;15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.462;2.695</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2.631;2.592</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Contas a receber, líquidas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.121;4.953</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.753;5.295</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arrendamentos;16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9880</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>173;183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Estoques</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.546;6.109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.485;6.102</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adiantamentos de clientes;21.1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>555;409</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>537;401</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Adiantamentos a fornecedores</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>284;293</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>259;201</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>76187</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>40184</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Impostos e contribuições a recolher;17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>206;137</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>173;135</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Impostos e contribuições a recuperar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.800;2.764</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.769;2.756</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dividendos e Juros sobre o capital próprio;20.3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.355;1.512</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.355;1.512</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>474;486</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>458;470</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Salários, férias, encargos, prêmios e incentivos;18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>293;340</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>203;323</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>146;131</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>132;124</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Planos de pensão e saúde;19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>131;145</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>131;145</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Instrumentos financeiros derivativos</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3.625;461</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>93461</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Instrumentos financeiros derivativos;27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.53453</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outros ativos circulantes</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>307;160</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>97147</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Credores por aquisição de participações societárias;27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>121;145</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25.9682;5.841</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.0652;4.874</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Outras contas e despesas a pagar</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>357;379</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>285;328</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>13.374;8.514</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>8.271;8.344</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Não circulante</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Não circulante</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Realizável a longo prazo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Empréstimos e financiamentos;15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>22.2221;7.754</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16.0531;6.946</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Caixa e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>108;-</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Arrendamentos;16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568;279</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>483;492</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Debêntures</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>325;-</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Incentivos de longo prazo;18.2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Contas a receber, líquidas</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>960;843</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>967;985</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Planos de pensão e saúde;19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>726;757</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>726;757</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Depósitos judiciais</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.336;1.333</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.334;1.331</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Instrumentos financeiros derivativos;27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.60165</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>11265</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Impostos e contribuições a recuperar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5.202;5.046</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.194;5.046</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Outros impostos diferidos</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>51;-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social diferidos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.162;2.170</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.041;2.160</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social diferidos;17.3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>234;-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>804;831</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>804;831</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Provisão para processos judiciais e administrativos;25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.172;1.135</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.156;1.134</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4547</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Credores por aquisição de participações societárias;27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Instrumentos financeiros derivativos</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.165;442</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>191;442</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Outras contas e despesas a pagar</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>317;225</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Outros ativos realizáveis a longo prazo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18795</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8157</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>27.856;20.101</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>18.9531;9.724</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14.2941;0.807</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.6541;0.899</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>41.2302;8.615</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>27.2242;8.068</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Patrimônio líquido;20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Capital social realizado</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10.0341;0.034</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10.0341;0.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ações em tesouraria</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-105;-105</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-105;-105</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Reserva de capital</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Reservas de lucros</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>11.7441;1.479</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>11.7441;1.479</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.865;3.921</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.843;5.634</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ajustes de avaliação patrimonial</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-1.140;-1.115</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-1.140;-1.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Imobilizado</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14.816;6.984</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.375;6.262</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Patrimônio líquido atribuível aos acionistas controladores</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>20.5572;0.385</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>20.5572;0.385</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intangível</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5.291;1.447</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>844;784</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Participação de acionistas não controladores</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>447;-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>36.2662;3.159</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.7162;3.579</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>21.0042;0.385</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>20.5572;0.385</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>62.2344;9.000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>47.7814;8.453</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>62.2344;9.000</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>47.7814;8.453</t>
         </is>
       </c>
     </row>
@@ -479,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,30 +1741,582 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Período de três meses findos</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Período de três meses findos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>em;31 de março de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>em;31 de março de</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025;2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025;2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Receita de vendas de produtos e serviços prestados</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2;1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>44.9063;9.599</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.9143;9.395</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Marcação a mercado</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-47  -</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Custo dos produtos vendidos e serviços prestados</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22 .1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-42.519;-37.488</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-40.788;-37.314</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lucro bruto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.340;2.111</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.126;2.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Despesas operacionais</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vendas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22 .2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-742;-668</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-744;-669</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Perdas de crédito esperadas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-14;2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-6;2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gerais e administrativas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22 .3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-359;-224</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-206;-199</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tributárias</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-34;-35</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-34;-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Outras receitas (despesas), líquidas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22 .4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>314;443</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>304;443</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-835;-482</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-686;-458</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lucro antes do resultado financeiro, participação e impostos</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.505;1.629</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.440;1.623</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Financeiras</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Despesas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-716;-316</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-464;-322</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>313;189</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>234;186</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>V ariações cambiais e monetárias, líquidas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-268;-207</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>142-205</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-671;-334</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-88;-341</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Resultado de participações em investimentos</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1;0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>29-71</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-470;-58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lucro antes dos impostos</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>863;1.224</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>882;1.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17 .3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-189;-451</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-148;-444</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Diferido</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-73;16</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-119;9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-262;-435</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-267;-435</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Lucro líquido do período</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>789</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>789</t>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>601;789</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>615;789</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Participação atribuída aos acionistas controladores</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>615;789</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>615;789</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Participação atribuída aos acionistas não controladores</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-14  -</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Resultado por ação básico - R$</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0,55180,7045</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,55180,7045</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Resultado por ação diluído - R$</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,54980,7025</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,54980,7025</t>
         </is>
       </c>
     </row>
@@ -526,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,219 +2340,1113 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>(230)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>(176)</t>
-        </is>
-      </c>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(3.379)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(5.857)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>(134)</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Controladora  Consolidado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Período de três meses findos</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(2.504)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(1.010)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(1.195)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(1.158)</t>
+          <t>Período de três meses findos</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>em;31 de m arço de</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(69)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>em;31 de m arço de</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nota 2025;2024</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(5.007)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(1.190)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(6.297)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>(1.468)</t>
+          <t>2025;2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caixa e equivalentes de caixa no início do período</t>
+          <t>Atividade operacional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.480</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.666</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9.316</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6.157</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Lucro líquido do período</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>601;789</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>615;789</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ajustes:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17.3;262435</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>267;435</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Depreciação e amortização</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22;242143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>131;139</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Resultado com alienação / baixas de ativos</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-40;-57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-37;-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Perdas de crédito esperadas, líquidas de reversão</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7;29  15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Resultado de participações em investimentos</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-29;71</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>47058</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Apropriação / baixa das bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9;171176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>169;176</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Apropriação de seguros, aluguéis e outros</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>38;23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Juros, variações cambiais e monetárias, líquidas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-19;443</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-263;442</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Resultado valor justo instrumentos financeiros derivativos</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>903;20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>47023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Despesa com planos de pensão e saúde</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>19;2733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Provisão para processos judiciais e administrativos, líquida de reversão</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25 .1;58;-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>57-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Provisão para Créditos de Descarbonização (CBIOS)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>146;255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>146;255</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Créditos de ICMS - Fim da definitividade - Substituição Tributária</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3;-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Créditos de PIS COFINS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17;-398;-535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-398;-535</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Provisão para perda de recuperabilidade de impostos</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Provisão de prêmios e incentivos</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>72;33</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Outros ajustes</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>--69</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-6;-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Redução (aumento) de ativos e aumento (redução) de passivos</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Contas a receber</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-497;60</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-464;220</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estoques</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-432;-1.153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-383;-1.019</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9;-132;-35</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-130;-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-55;-21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-47;-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Depósitos Judiciais</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-13;-13</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-13;-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Aquisição de Créditos de Descarbonização (CBIOS)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165;-293</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-165;-293</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fornecedores</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>305;-113</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>228-352</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Imposto de renda e contribuição social pagos</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-29;-10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Impostos, taxas e contribuições</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>37;-65</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>109-64</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Planos de pensão e de saúde</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-72;-74</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-72;-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pagamento de prêmios e incentivos</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-218;-128</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-169;-128</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pagamentos de processos judiciais e administrativos</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-12;-52</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-12;-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Adiantamentos de clientes</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>142;3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Adiantamentos a fornecedores</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12;-108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-58;-108</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Outros ativos e passivos, líquidos</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>945;-230</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>755-176</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Atividades de investimentos</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Desembolsos por aquisições de imobilizados e intangíveis</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-458;-155</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-290;-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Desembolsos por aquisições/aportes de participações societárias</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-191;-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-5.694;-168</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Recebimentos pela venda de ativos</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>122;204</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>122;179</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Investimentos em TVM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>35;-6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dividendos recebidos</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6;-</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Recebimentos de principal de empréstimos concedidos</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22;-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mútuos concedidos</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-103;-10</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-7;-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Aquisição de controlada, líquido do caixa adquirido no consolidado</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2.3;-2.812  -</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-3.379;28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-5.857;-134</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Atividades de financiamentos</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Financiamentos</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Captações</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>15.1;1.446;149</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.444;-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Amortizações de principal</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>15.1;-3.371;-343</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-2.086;-246</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Amortizações de juros</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>15.1;-179;-173</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-110;-168</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dividendos e Juros sobre capital próprio pagos</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20.3;-478;-441</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-478;-441</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Arrendamentos</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Pagamentos de principal</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16.2;-22;-25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-121;-125</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pagamentos de juros</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16.2;-10;-16</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-9;-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Depósitos e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6;-61  -</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Resgate depósitos e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6;12;-</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Contratos de swaps vinculados a operações de empréstimos</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Pagamentos de ajustes em contratos</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-134;-172</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-128;-172</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Recebimentos de ajustes em contratos</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>29311</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>29311</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-2.504;-1.010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-1.195;-1.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-69;22</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-5.007;-1.190</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-6.297;-1.468</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Caixa e equivalentes de caixa no início do período</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10.480;6.666</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9.316;6.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>Caixa e equivalentes de caixa no fim do período</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5.473</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.476</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.019</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4.689</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5.473;5.476</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3.019;4.689</t>
         </is>
       </c>
     </row>

--- a/vibraITR_tables.xlsx
+++ b/vibraITR_tables.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRE_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DFC_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DFC" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -36,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,12 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -415,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,159 +436,183 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No ta</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consolidado</t>
+          <t>31.03.2025  31.12.2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Controladora</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>31.03.2025  31.12.2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Passivo Nota</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Consolidado</t>
+          <t>31.03.2025  31.12.2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Controladora</t>
+          <t>31.03.2025  31.12.2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No ta</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31.03.2025;31.12.2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.03.2025;31.12.2024</t>
-        </is>
-      </c>
+          <t>Circulante</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Passivo Nota</t>
+          <t>Circulante</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>31.03.2025;31.12.2024</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>31.03.2025;31.12.2024</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Circulante</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>Caixa e equivalentes de caixa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.47310.480</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.0199.316</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Circulante</t>
+          <t>Fornecedores 13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9192.432</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.3942.427</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caixa e equivalentes de caixa</t>
+          <t>Caixa e aplicações restritas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.4731;0.480</t>
+          <t>70-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.019;9.316</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fornecedores;13</t>
+          <t>Financiamento de fornecimento de produtos 14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.919;2.432</t>
+          <t>267-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.394;2.427</t>
+          <t>267-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caixa e aplicações restritas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Debêntures</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>70;-</t>
+          <t>34-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -586,1138 +622,866 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Financiamento de fornecimento de produtos;14</t>
+          <t>Empréstimos e financiamentos 15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>267;-</t>
+          <t>3.4622.695</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>267;-</t>
+          <t>2.6312.592</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Debêntures</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Contas a receber, líquidas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34;-</t>
+          <t>6.1214.953</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5.7535.295</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Empréstimos e financiamentos;15</t>
+          <t>Arrendamentos 16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.462;2.695</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.631;2.592</t>
+          <t>173183</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Contas a receber, líquidas</t>
+          <t>Estoques</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.121;4.953</t>
+          <t>6.5466.109</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.753;5.295</t>
+          <t>6.4856.102</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arrendamentos;16</t>
+          <t>Adiantamentos de clientes 21.1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>555409</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>173;183</t>
+          <t>537401</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Estoques</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>Adiantamentos a fornecedores</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.546;6.109</t>
+          <t>284293</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.485;6.102</t>
+          <t>259201</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adiantamentos de clientes;21.1</t>
+          <t>Imposto de renda e contribuição social</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>555;409</t>
+          <t>76187</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>537;401</t>
+          <t>40184</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adiantamentos a fornecedores</t>
+          <t>Imposto de renda e contribuição social</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>284;293</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>259;201</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
+          <t>Impostos e contribuições a recolher 17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>76187</t>
+          <t>206137</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>40184</t>
+          <t>173135</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Impostos e contribuições a recuperar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>2.8002.764</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2.7692.756</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recolher;17</t>
+          <t>Dividendos e Juros sobre o capital próprio 20.3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>206;137</t>
+          <t>1.3551.512</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>173;135</t>
+          <t>1.3551.512</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recuperar</t>
+          <t>Bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.800;2.764</t>
+          <t>474486</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.769;2.756</t>
+          <t>458470</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dividendos e Juros sobre o capital próprio;20.3</t>
+          <t>Salários, férias, encargos, prêmios e incentivos 18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.355;1.512</t>
+          <t>293340</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.355;1.512</t>
+          <t>203323</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>474;486</t>
+          <t>146131</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>458;470</t>
+          <t>132124</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Salários, férias, encargos, prêmios e incentivos;18</t>
+          <t>Planos de pensão e saúde 19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>293;340</t>
+          <t>131145</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>203;323</t>
+          <t>131145</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Instrumentos financeiros derivativos</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>146;131</t>
+          <t>3.625461</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>132;124</t>
+          <t>93461</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Planos de pensão e saúde;19</t>
+          <t>Instrumentos financeiros derivativos 27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>131;145</t>
+          <t>3.53453</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>131;145</t>
+          <t>1244</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>Outros ativos circulantes 25.96825.841 19.06524.874 Outras contas e despesas a pagar 357379 285328 13.3748.514 8.2718.344</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.625;461</t>
+          <t>307160</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93461</t>
+          <t>97147</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos;27</t>
+          <t>Credores por aquisição de participações societárias 27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.53453</t>
+          <t>121145</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>7070</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Outros ativos circulantes</t>
+          <t>Não circulante</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>307;160</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97147</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Credores por aquisição de participações societárias;27</t>
+          <t>Não circulante</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>121;145</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>7070</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Realizável a longo prazo</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>25.9682;5.841</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>19.0652;4.874</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Outras contas e despesas a pagar</t>
+          <t>Empréstimos e financiamentos 15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>357;379</t>
+          <t>22.22217.754</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>285;328</t>
+          <t>16.05316.946</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Caixa e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>108-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Arrendamentos 16</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13.374;8.514</t>
+          <t>568279</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.271;8.344</t>
+          <t>483492</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Debêntures</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>325-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Incentivos de longo prazo 18.2</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Não circulante</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>Contas a receber, líquidas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>960843</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>967985</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Não circulante</t>
+          <t>Planos de pensão e saúde 19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>726757</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>726757</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Realizável a longo prazo</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>Depósitos judiciais</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.3361.333</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.3341.331</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empréstimos e financiamentos;15</t>
+          <t>Instrumentos financeiros derivativos  27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22.2221;7.754</t>
+          <t>2.60165</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16.0531;6.946</t>
+          <t>11265</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Caixa e aplicações restritas</t>
+          <t>Impostos e contribuições a recuperar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>108;-</t>
+          <t>5.2025.046</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5.1945.046</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arrendamentos;16</t>
+          <t>Outros impostos diferidos</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568;279</t>
+          <t>51-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>483;492</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Debêntures</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Imposto de renda e contribuição social diferidos</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>325;-</t>
+          <t>2.1622.170</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2.0412.160</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Incentivos de longo prazo;18.2</t>
+          <t>Imposto de renda e contribuição social diferidos  17.3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>234-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Contas a receber, líquidas</t>
+          <t>Bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>960;843</t>
+          <t>804831</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>967;985</t>
+          <t>804831</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Planos de pensão e saúde;19</t>
+          <t>Provisão para processos judiciais e administrativos 25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>726;757</t>
+          <t>1.1721.135</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>726;757</t>
+          <t>1.1561.134</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Depósitos judiciais</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.336;1.333</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.334;1.331</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos;27</t>
+          <t>Credores por aquisição de participações societárias 27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.60165</t>
+          <t>9889</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11265</t>
+          <t>8789</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recuperar</t>
+          <t>Instrumentos financeiros derivativos</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.202;5.046</t>
+          <t>3.165442</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.194;5.046</t>
+          <t>191442</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Outros impostos diferidos</t>
+          <t>Outras contas e despesas a pagar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>51;-</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>317225</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social diferidos</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
+          <t>Outros ativos realizáveis a longo prazo 14.29410.807 10.65410.899 41.23028.615 27.22428.068 Patrimônio líquido 20 Capital social realizado 10.03410.034 10.03410.034 Ações em tesouraria (105)  (105) (105)  (105) Reserva de capital 2492 2492 Reservas de lucros 11.74411.479 11.74411.479</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.162;2.170</t>
+          <t>18795</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.041;2.160</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Imposto de renda e contribuição social diferidos;17.3</t>
-        </is>
-      </c>
+          <t>8157</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>234;-</t>
+          <t>27.856  20.101</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>18.95319.724</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
+          <t>Investimentos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>804;831</t>
+          <t>1.8653.921</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>804;831</t>
+          <t>10.8435.634</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Provisão para processos judiciais e administrativos;25</t>
+          <t>Ajustes de avaliação patrimonial</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.172;1.135</t>
+          <t>(1.140)  (1.115)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.156;1.134</t>
+          <t>(1.140)  (1.115)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>Imobilizado</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>14.8166.984</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>6.3756.262</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Credores por aquisição de participações societárias;27</t>
+          <t>Patrimônio líquido atribuível aos acionistas controladores</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9889</t>
+          <t>20.55720.385</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>20.55720.385</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos</t>
+          <t>Intangível 36.26623.159 28.71623.579 21.00420.385 20.55720.385 62.23449.000 47.78148.453 62.23449.000 47.78148.453</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3.165;442</t>
+          <t>5.2911.447</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>191;442</t>
+          <t>844784</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Outras contas e despesas a pagar</t>
+          <t>Participação de acionistas não controladores</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>447-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>317;225</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Outros ativos realizáveis a longo prazo</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>18795</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>8157</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>27.856;20.101</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>18.9531;9.724</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>14.2941;0.807</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>10.6541;0.899</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>41.2302;8.615</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>27.2242;8.068</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Patrimônio líquido;20</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Capital social realizado</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>10.0341;0.034</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>10.0341;0.034</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ações em tesouraria</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-105;-105</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-105;-105</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Reserva de capital</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2492</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2492</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Reservas de lucros</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>11.7441;1.479</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>11.7441;1.479</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Investimentos</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1.865;3.921</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>10.843;5.634</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Ajustes de avaliação patrimonial</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-1.140;-1.115</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-1.140;-1.115</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Imobilizado</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>14.816;6.984</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6.375;6.262</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Patrimônio líquido atribuível aos acionistas controladores</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>20.5572;0.385</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>20.5572;0.385</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Intangível</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>5.291;1.447</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>844;784</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Participação de acionistas não controladores</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>447;-</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>36.2662;3.159</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>28.7162;3.579</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>21.0042;0.385</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>20.5572;0.385</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>62.2344;9.000</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>47.7814;8.453</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>62.2344;9.000</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>47.7814;8.453</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1741,580 +1505,498 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Controladora</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nan em 31 de março de em 31 de março de Nota 2025 2024 2025 2024</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consolidado</t>
+          <t>Período de três meses findos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Controladora</t>
+          <t>Período de três meses findos</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Receita de vendas de produtos e serviços prestados</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2 1</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>44.90639.599</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>42.91439.395</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Marcação a mercado</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>em;31 de março de</t>
+          <t>(47)  -</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>em;31 de março de</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Custo dos produtos vendidos e serviços prestados</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nota</t>
+          <t>22 .1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025;2024</t>
+          <t>(42.519)  (37.488)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025;2024</t>
+          <t>(40.788)  (37.314)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Receita de vendas de produtos e serviços prestados</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2;1</t>
-        </is>
-      </c>
+          <t>Lucro bruto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>44.9063;9.599</t>
+          <t>2.3402.111</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42.9143;9.395</t>
+          <t>2.1262.081</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marcação a mercado</t>
+          <t>Despesas operacionais</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-47  -</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Custo dos produtos vendidos e serviços prestados</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22 .1</t>
+          <t>22 .2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-42.519;-37.488</t>
+          <t>(742)  (668)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-40.788;-37.314</t>
+          <t>(744)  (669)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lucro bruto</t>
+          <t>Perdas de crédito esperadas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.340;2.111</t>
+          <t>(14)  2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.126;2.081</t>
+          <t>(6)  2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Despesas operacionais</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>Gerais e administrativas</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22 .3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(359)  (224)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(206)  (199)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vendas</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>22 .2</t>
-        </is>
-      </c>
+          <t>Tributárias</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-742;-668</t>
+          <t>(34)  (35)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-744;-669</t>
+          <t>(34)  (35)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Perdas de crédito esperadas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Outras receitas (despesas), líquidas (835) (482) (686) (458)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22 .4</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-14;2</t>
+          <t>314443</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-6;2</t>
+          <t>304443</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gerais e administrativas</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>22 .3</t>
-        </is>
-      </c>
+          <t>Lucro antes do resultado financeiro, participação e impostos</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-359;-224</t>
+          <t>1.5051.629</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-206;-199</t>
+          <t>1.4401.623</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tributárias</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-34;-35</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-34;-35</t>
-        </is>
-      </c>
+          <t>Financeiras</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Outras receitas (despesas), líquidas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>22 .4</t>
-        </is>
-      </c>
+          <t>Despesas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>314;443</t>
+          <t>(716)  (316)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>304;443</t>
+          <t>(464)  (322)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-835;-482</t>
+          <t>313189</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-686;-458</t>
+          <t>234186</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lucro antes do resultado financeiro, participação e impostos</t>
+          <t>V ariações cambiais e monetárias, líquidas (671)  (334) (88)  (341)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.505;1.629</t>
+          <t>(268)  (207)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.440;1.623</t>
+          <t>142(205)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Financeiras</t>
+          <t>Resultado de participações em investimentos</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>1 0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>29(71)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(470)  (58)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Despesas</t>
+          <t>Lucro antes dos impostos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-716;-316</t>
+          <t>8631.224</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-464;-322</t>
+          <t>8821.224</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Receitas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>313;189</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>234;186</t>
-        </is>
-      </c>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17 .3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>V ariações cambiais e monetárias, líquidas</t>
+          <t>Corrente</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-268;-207</t>
+          <t>(189)  (451)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>142-205</t>
+          <t>(148)  (444)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Diferido (262)  (435) (267)  (435)</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-671;-334</t>
+          <t>(73) 16</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-88;-341</t>
+          <t>(119) 9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Resultado de participações em investimentos</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1;0</t>
-        </is>
-      </c>
+          <t>Lucro líquido do período</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>29-71</t>
+          <t>601789</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-470;-58</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lucro antes dos impostos</t>
+          <t>Participação atribuída aos acionistas controladores</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>863;1.224</t>
+          <t>615789</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>882;1.224</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17 .3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+          <t>Participação atribuída aos acionistas não controladores</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(14)  -</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Corrente</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Resultado por ação básico - R$</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-189;-451</t>
+          <t>0,55180,7045</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-148;-444</t>
+          <t>0,55180,7045</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diferido</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Resultado por ação diluído - R$</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-73;16</t>
+          <t>0,54980,7025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>-119;9</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-262;-435</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-267;-435</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lucro líquido do período</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>601;789</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>615;789</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Participação atribuída aos acionistas controladores</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>615;789</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>615;789</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Participação atribuída aos acionistas não controladores</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-14  -</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Resultado por ação básico - R$</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0,55180,7045</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0,55180,7045</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Resultado por ação diluído - R$</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0,54980,7025</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>0,54980,7025</t>
         </is>
@@ -2331,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,1113 +2022,1086 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Controladora  Consolidado</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nan em 31 de m arço de em 31 de m arço de Nota 2025 2024 2025 2024</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Controladora  Consolidado</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Período de três meses findos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Período de três meses findos</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Período de três meses findos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Período de três meses findos</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Atividade operacional</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucro líquido do período</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>em;31 de m arço de</t>
+          <t>601  789</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>em;31 de m arço de</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nota 2025;2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025;2024</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ajustes:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atividade operacional</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17.3 262  435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>267435</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lucro líquido do período</t>
+          <t>Depreciação e amortização</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>601;789</t>
+          <t>22  242  143</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>615;789</t>
+          <t>131139</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ajustes:</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>Resultado com alienação / baixas de ativos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(40) (57)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(37)  (57)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
+          <t>Perdas de crédito esperadas, líquidas de reversão</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17.3;262435</t>
+          <t>7 29  15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>267;435</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Depreciação e amortização</t>
+          <t>Resultado de participações em investimentos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22;242143</t>
+          <t>(29) 71</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>131;139</t>
+          <t>47058</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Resultado com alienação / baixas de ativos</t>
+          <t>Apropriação / baixa das bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-40;-57</t>
+          <t>9 171  176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-37;-57</t>
+          <t>169176</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Perdas de crédito esperadas, líquidas de reversão</t>
+          <t>Apropriação de seguros, aluguéis e outros</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7;29  15</t>
+          <t>38  23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>3121</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Resultado de participações em investimentos</t>
+          <t>Juros, variações cambiais e monetárias, líquidas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-29;71</t>
+          <t>(19) 443</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>47058</t>
+          <t>(263)  442</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apropriação / baixa das bonificações antecipadas concedidas a clientes</t>
+          <t>Resultado valor justo instrumentos financeiros derivativos</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9;171176</t>
+          <t>903  20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>169;176</t>
+          <t>47023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Apropriação de seguros, aluguéis e outros</t>
+          <t>Despesa com planos de pensão e saúde</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>38;23</t>
+          <t>19 2733</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>2733</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Juros, variações cambiais e monetárias, líquidas</t>
+          <t>Provisão para processos judiciais e administrativos, líquida de reversão</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-19;443</t>
+          <t>25 .1 58  (28)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-263;442</t>
+          <t>57(28)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Resultado valor justo instrumentos financeiros derivativos</t>
+          <t>Provisão para Créditos de Descarbonização (CBIOS)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>903;20</t>
+          <t>146  255</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>47023</t>
+          <t>146255</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Despesa com planos de pensão e saúde</t>
+          <t>Créditos de ICMS - Fim da definitividade - Substituição Tributária</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19;2733</t>
+          <t>3(3)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>3  (3)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Provisão para processos judiciais e administrativos, líquida de reversão</t>
+          <t>Créditos de PIS COFINS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25 .1;58;-28</t>
+          <t>17  (398) (535)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>57-28</t>
+          <t>(398)  (535)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Provisão para Créditos de Descarbonização (CBIOS)</t>
+          <t>Provisão para perda de recuperabilidade de impostos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>146;255</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>146;255</t>
+          <t>-5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Créditos de ICMS - Fim da definitividade - Substituição Tributária</t>
+          <t>Provisão de prêmios e incentivos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>72  33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3;-3</t>
+          <t>5133</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Créditos de PIS COFINS</t>
+          <t>Outros ajustes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17;-398;-535</t>
+          <t>-(69)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-398;-535</t>
+          <t>(6)  (70)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Provisão para perda de recuperabilidade de impostos</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>Redução (aumento) de ativos e aumento (redução) de passivos</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Provisão de prêmios e incentivos</t>
+          <t>Contas a receber</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>72;33</t>
+          <t>(497) 60</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5133</t>
+          <t>(464)  220</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Outros ajustes</t>
+          <t>Estoques</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>--69</t>
+          <t>(432) (1.153)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-6;-70</t>
+          <t>(383)  (1.019)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Redução (aumento) de ativos e aumento (redução) de passivos</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t>Bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9 (132) (35)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(130)  (35)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Contas a receber</t>
+          <t>Despesas antecipadas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-497;60</t>
+          <t>(55) (21)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-464;220</t>
+          <t>(47)  (18)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Estoques</t>
+          <t>Depósitos Judiciais</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-432;-1.153</t>
+          <t>(13) (13)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-383;-1.019</t>
+          <t>(13)  (13)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
+          <t>Aquisição de Créditos de Descarbonização (CBIOS)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9;-132;-35</t>
+          <t>(165)(293)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-130;-35</t>
+          <t>(165)  (293)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
+          <t>Fornecedores</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-55;-21</t>
+          <t>305  (113)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-47;-18</t>
+          <t>228(352)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Depósitos Judiciais</t>
+          <t>Imposto de renda e contribuição social pagos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-13;-13</t>
+          <t>(29) (10)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-13;-13</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aquisição de Créditos de Descarbonização (CBIOS)</t>
+          <t>Impostos, taxas e contribuições</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>165;-293</t>
+          <t>37  (65)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-165;-293</t>
+          <t>109(64)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fornecedores</t>
+          <t>Planos de pensão e de saúde</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>305;-113</t>
+          <t>(72) (74)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>228-352</t>
+          <t>(72)  (74)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social pagos</t>
+          <t>Pagamento de prêmios e incentivos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-29;-10</t>
+          <t>(218) (128)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(169)  (128)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Impostos, taxas e contribuições</t>
+          <t>Pagamentos de processos judiciais e administrativos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>37;-65</t>
+          <t>(12) (52)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>109-64</t>
+          <t>(12)  (52)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Planos de pensão e de saúde</t>
+          <t>Adiantamentos de clientes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-72;-74</t>
+          <t>142  3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-72;-74</t>
+          <t>1395</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pagamento de prêmios e incentivos</t>
+          <t>Adiantamentos a fornecedores</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-218;-128</t>
+          <t>12  (108)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-169;-128</t>
+          <t>(58)  (108)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pagamentos de processos judiciais e administrativos</t>
+          <t>Outros ativos e passivos, líquidos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-12;-52</t>
+          <t>823</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-12;-52</t>
+          <t>3824</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Adiantamentos de clientes</t>
+          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>142;3</t>
+          <t>945  (230)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>755(176)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adiantamentos a fornecedores</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>12;-108</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>-58;-108</t>
-        </is>
-      </c>
+          <t>Atividades de investimentos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Outros ativos e passivos, líquidos</t>
+          <t>Desembolsos por aquisições de imobilizados e intangíveis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>(458) (155)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3824</t>
+          <t>(290)  (150)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
+          <t>Desembolsos por aquisições/aportes de participações societárias</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>945;-230</t>
+          <t>(191) (5)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>755-176</t>
+          <t>(5.694)  (168)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Atividades de investimentos</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>Recebimentos pela venda de ativos</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>122  204</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>122179</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Desembolsos por aquisições de imobilizados e intangíveis</t>
+          <t>Investimentos em TVM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-458;-155</t>
+          <t>35  (6)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-290;-150</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Desembolsos por aquisições/aportes de participações societárias</t>
+          <t>Dividendos recebidos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-191;-5</t>
+          <t>6  -</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-5.694;-168</t>
+          <t>1215</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Recebimentos pela venda de ativos</t>
+          <t>Recebimentos de principal de empréstimos concedidos</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>122;204</t>
+          <t>22  -</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>122;179</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Investimentos em TVM</t>
+          <t>Mútuos concedidos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>35;-6</t>
+          <t>(103) (10)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(7)  (10)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dividendos recebidos</t>
+          <t>Aquisição de controlada, líquido do caixa adquirido no consolidado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6;-</t>
+          <t>2.3 (2.812)  -</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Recebimentos de principal de empréstimos concedidos</t>
+          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22;-</t>
+          <t>(3.379) 28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(5.857)  (134)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mútuos concedidos</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>-103;-10</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>-7;-10</t>
-        </is>
-      </c>
+          <t>Atividades de financiamentos</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aquisição de controlada, líquido do caixa adquirido no consolidado</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2.3;-2.812  -</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Financiamentos</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
+          <t>Captações</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-3.379;28</t>
+          <t>15.1 1.446  149</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-5.857;-134</t>
+          <t>1.444-</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Atividades de financiamentos</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+          <t>Amortizações de principal</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>15.1 (3.371) (343)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>(2.086)  (246)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Financiamentos</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+          <t>Amortizações de juros</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>15.1 (179) (173)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>(110)  (168)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Captações</t>
+          <t>Dividendos e Juros sobre capital próprio pagos</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15.1;1.446;149</t>
+          <t>20.3 (478) (441)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.444;-</t>
+          <t>(478)  (441)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Amortizações de principal</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>15.1;-3.371;-343</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>-2.086;-246</t>
-        </is>
-      </c>
+          <t>Arrendamentos</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amortizações de juros</t>
+          <t>Pagamentos de principal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15.1;-179;-173</t>
+          <t>16.2 (22) (25)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-110;-168</t>
+          <t>(121)  (125)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Dividendos e Juros sobre capital próprio pagos</t>
+          <t>Pagamentos de juros</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20.3;-478;-441</t>
+          <t>16.2 (10) (16)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-478;-441</t>
+          <t>(9)  (17)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Arrendamentos</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>Depósitos e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6 (61)  -</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pagamentos de principal</t>
+          <t>Resgate depósitos e aplicações restritas</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16.2;-22;-25</t>
+          <t>6  12  -</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-121;-125</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pagamentos de juros</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>16.2;-10;-16</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>-9;-17</t>
-        </is>
-      </c>
+          <t>Contratos de swaps vinculados a operações de empréstimos</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Depósitos e aplicações restritas</t>
+          <t>Pagamentos de ajustes em contratos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6;-61  -</t>
+          <t>(134) (172)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(128)  (172)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Resgate depósitos e aplicações restritas</t>
+          <t>Recebimentos de ajustes em contratos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6;12;-</t>
+          <t>29311</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>29311</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Contratos de swaps vinculados a operações de empréstimos</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(2.504) (1.010)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>(1.195)  (1.158)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pagamentos de ajustes em contratos</t>
+          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-134;-172</t>
+          <t>(69) 22</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-128;-172</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Recebimentos de ajustes em contratos</t>
+          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29311</t>
+          <t>(5.007) (1.190)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>29311</t>
+          <t>(6.297)  (1.468)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
+          <t>Caixa e equivalentes de caixa no início do período</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-2.504;-1.010</t>
+          <t>10.480  6.666</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-1.195;-1.158</t>
+          <t>9.3166.157</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
+          <t>Caixa e equivalentes de caixa no fim do período</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-69;22</t>
+          <t>5.473  5.476</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>-5.007;-1.190</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>-6.297;-1.468</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Caixa e equivalentes de caixa no início do período</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>10.480;6.666</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>9.316;6.157</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Caixa e equivalentes de caixa no fim do período</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>5.473;5.476</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>3.019;4.689</t>
+          <t>3.0194.689</t>
         </is>
       </c>
     </row>

--- a/vibraITR_tables.xlsx
+++ b/vibraITR_tables.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1054 +436,1011 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr"/>
-      <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo Circulante</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No ta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidado 31.03.2025  31.12.2024</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Controladora 31.03.2025  31.12.2024</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Passivo Nota Circulante</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidado 31.03.2025  31.12.2024</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Controladora 31.03.2025  31.12.2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Caixa e equivalentes de caixa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consolidado</t>
+          <t>5.47310.480</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Controladora</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>3.0199.316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fornecedores 13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.9192.432</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Consolidado</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Controladora</t>
+          <t>2.3942.427</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Caixa e aplicações restritas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No ta</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31.03.2025  31.12.2024</t>
+          <t>70-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.03.2025  31.12.2024</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Passivo Nota</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Financiamento de fornecimento de produtos 14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>267-</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31.03.2025  31.12.2024</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>31.03.2025  31.12.2024</t>
+          <t>267-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Circulante</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>34-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Circulante</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Empréstimos e financiamentos 15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.4622.695</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6312.592</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caixa e equivalentes de caixa</t>
+          <t>Contas a receber, líquidas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.47310.480</t>
+          <t>6.1214.953</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.0199.316</t>
+          <t>5.7535.295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fornecedores 13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Arrendamentos 16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9880</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.9192.432</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2.3942.427</t>
+          <t>173183</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caixa e aplicações restritas</t>
+          <t>Estoques</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>70-</t>
+          <t>6.5466.109</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>6.4856.102</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Financiamento de fornecimento de produtos 14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Adiantamentos de clientes 21.1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>555409</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>267-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>267-</t>
+          <t>537401</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Adiantamentos a fornecedores</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34-</t>
+          <t>284293</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>259201</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empréstimos e financiamentos 15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>76187</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.4622.695</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2.6312.592</t>
+          <t>40184</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Contas a receber, líquidas</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6.1214.953</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.7535.295</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arrendamentos 16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Impostos e contribuições a recolher 17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>206137</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9880</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>173183</t>
+          <t>173135</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estoques</t>
+          <t>Impostos e contribuições a recuperar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.5466.109</t>
+          <t>2.8002.764</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.4856.102</t>
+          <t>2.7692.756</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adiantamentos de clientes 21.1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Dividendos e Juros sobre o capital próprio 20.3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.3551.512</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>555409</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>537401</t>
+          <t>1.3551.512</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Adiantamentos a fornecedores</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Bonificações antecipadas concedidas a clientes</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>284293</t>
+          <t>474486</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>259201</t>
+          <t>458470</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Salários, férias, encargos, prêmios e incentivos 18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>293340</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>76187</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>40184</t>
+          <t>203323</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
+          <t>Despesas antecipadas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>146131</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>132124</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recolher 17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Planos de pensão e saúde 19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>131145</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>206137</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>173135</t>
+          <t>131145</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recuperar</t>
+          <t>Instrumentos financeiros derivativos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.8002.764</t>
+          <t>3.625461</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.7692.756</t>
+          <t>93461</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dividendos e Juros sobre o capital próprio 20.3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Instrumentos financeiros derivativos 27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53453</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3551.512</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1.3551.512</t>
+          <t>1244</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+          <t>Outros ativos circulantes</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>474486</t>
+          <t>307160</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>458470</t>
+          <t>97147</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Salários, férias, encargos, prêmios e incentivos 18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Credores por aquisição de participações societárias 27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>121145</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>293340</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>203323</t>
+          <t>7070</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
+          <t>25.96825.841 19.06524.874 Outras contas e despesas a pagar 357379 285328 13.3748.514 8.2718.344</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>146131</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>132124</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Planos de pensão e saúde 19</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>131145</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>131145</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3.625461</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93461</t>
-        </is>
-      </c>
+          <t>Não circulante</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos 27</t>
+          <t>Não circulante</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3.53453</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1244</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Outros ativos circulantes 25.96825.841 19.06524.874 Outras contas e despesas a pagar 357379 285328 13.3748.514 8.2718.344</t>
+          <t>Realizável a longo prazo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>307160</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>97147</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Credores por aquisição de participações societárias 27</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Empréstimos e financiamentos 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>22.22217.754</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>121145</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>7070</t>
+          <t>16.05316.946</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Não circulante</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>Caixa e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>108-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Não circulante</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>Arrendamentos 16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>568279</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>483492</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Realizável a longo prazo</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>325-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Empréstimos e financiamentos 15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Incentivos de longo prazo 18.2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22.22217.754</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>16.05316.946</t>
+          <t>1916</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Caixa e aplicações restritas</t>
+          <t>Contas a receber, líquidas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>108-</t>
+          <t>960843</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>967985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arrendamentos 16</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Planos de pensão e saúde 19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>726757</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568279</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>483492</t>
+          <t>726757</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Debêntures</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Depósitos judiciais</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>325-</t>
+          <t>1.3361.333</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>1.3341.331</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Incentivos de longo prazo 18.2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Instrumentos financeiros derivativos  27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60165</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3116</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1916</t>
+          <t>11265</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Contas a receber, líquidas</t>
+          <t>Impostos e contribuições a recuperar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>960843</t>
+          <t>5.2025.046</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>967985</t>
+          <t>5.1945.046</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Planos de pensão e saúde 19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Outros impostos diferidos</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>51-</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>726757</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>726757</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Depósitos judiciais</t>
+          <t>Imposto de renda e contribuição social diferidos</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3361.333</t>
+          <t>2.1622.170</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.3341.331</t>
+          <t>2.0412.160</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos  27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Imposto de renda e contribuição social diferidos  17.3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>234-</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.60165</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>11265</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Impostos e contribuições a recuperar</t>
+          <t>Bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5.2025.046</t>
+          <t>804831</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.1945.046</t>
+          <t>804831</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Outros impostos diferidos</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Provisão para processos judiciais e administrativos 25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.1721.135</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>51-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>--</t>
+          <t>1.1561.134</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social diferidos</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
+          <t>Despesas antecipadas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.1622.170</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.0412.160</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social diferidos  17.3</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Credores por aquisição de participações societárias 27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>234-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>--</t>
+          <t>8789</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
+          <t>Instrumentos financeiros derivativos</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>804831</t>
+          <t>3.165442</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>804831</t>
+          <t>191442</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Provisão para processos judiciais e administrativos 25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Outras contas e despesas a pagar</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.1721.135</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1.1561.134</t>
+          <t>317225</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
+          <t>Outros ativos realizáveis a longo prazo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>18795</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Credores por aquisição de participações societárias 27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>8157</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>27.856  20.101</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9889</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>8789</t>
+          <t>18.95319.724</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Instrumentos financeiros derivativos</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3.165442</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>191442</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Outras contas e despesas a pagar</t>
-        </is>
-      </c>
+          <t>14.29410.807 10.65410.899 41.23028.615 27.22428.068 Patrimônio líquido 20 Capital social realizado 10.03410.034 10.03410.034 Ações em tesouraria (105)  (105) (105)  (105) Reserva de capital 2492 2492 Reservas de lucros 11.74411.479 11.74411.479</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1536</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>317225</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Outros ativos realizáveis a longo prazo 14.29410.807 10.65410.899 41.23028.615 27.22428.068 Patrimônio líquido 20 Capital social realizado 10.03410.034 10.03410.034 Ações em tesouraria (105)  (105) (105)  (105) Reserva de capital 2492 2492 Reservas de lucros 11.74411.479 11.74411.479</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18795</t>
+          <t>1.8653.921</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8157</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>10.8435.634</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ajustes de avaliação patrimonial</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(1.140)  (1.115)</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27.856  20.101</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>18.95319.724</t>
+          <t>(1.140)  (1.115)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Investimentos</t>
+          <t>Imobilizado</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.8653.921</t>
+          <t>14.8166.984</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.8435.634</t>
+          <t>6.3756.262</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ajustes de avaliação patrimonial</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Patrimônio líquido atribuível aos acionistas controladores</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20.55720.385</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(1.140)  (1.115)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(1.140)  (1.115)</t>
+          <t>20.55720.385</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Imobilizado</t>
+          <t>Intangível</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14.8166.984</t>
+          <t>5.2911.447</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6.3756.262</t>
+          <t>844784</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Patrimônio líquido atribuível aos acionistas controladores</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>Participação de acionistas não controladores</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>447-</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20.55720.385</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>20.55720.385</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intangível 36.26623.159 28.71623.579 21.00420.385 20.55720.385 62.23449.000 47.78148.453 62.23449.000 47.78148.453</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.2911.447</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>844784</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Participação de acionistas não controladores</t>
-        </is>
-      </c>
+          <t>36.26623.159 28.71623.579 21.00420.385 20.55720.385 62.23449.000 47.78148.453 62.23449.000 47.78148.453</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>447-</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1496,7 +1453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,227 +1463,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nota</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consolidado</t>
+          <t>Consolidado Período de três meses findos em 31 de março de 2025 2024</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Controladora</t>
+          <t>Controladora Período de três meses findos em 31 de março de 2025 2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nan em 31 de março de em 31 de março de Nota 2025 2024 2025 2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Receita de vendas de produtos e serviços prestados</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2 1</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>44.90639.599</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>42.91439.395</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Receita de vendas de produtos e serviços prestados</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2 1</t>
-        </is>
-      </c>
+          <t>Marcação a mercado</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44.90639.599</t>
+          <t>(47)  -</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.91439.395</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marcação a mercado</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Custo dos produtos vendidos e serviços prestados</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22 .1</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(47)  -</t>
+          <t>(42.519)  (37.488)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(40.788)  (37.314)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Custo dos produtos vendidos e serviços prestados</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>22 .1</t>
-        </is>
-      </c>
+          <t>Lucro bruto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(42.519)  (37.488)</t>
+          <t>2.3402.111</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(40.788)  (37.314)</t>
+          <t>2.1262.081</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lucro bruto</t>
+          <t>Despesas operacionais</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2.3402.111</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.1262.081</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Despesas operacionais</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>Vendas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22 .2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(742)  (668)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(744)  (669)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vendas</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22 .2</t>
-        </is>
-      </c>
+          <t>Perdas de crédito esperadas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(742)  (668)</t>
+          <t>(14)  2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(744)  (669)</t>
+          <t>(6)  2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perdas de crédito esperadas</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Gerais e administrativas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22 .3</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(14)  2</t>
+          <t>(359)  (224)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(6)  2</t>
+          <t>(206)  (199)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gerais e administrativas</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>22 .3</t>
-        </is>
-      </c>
+          <t>Tributárias</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(359)  (224)</t>
+          <t>(34)  (35)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(206)  (199)</t>
+          <t>(34)  (35)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tributárias</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Outras receitas (despesas), líquidas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22 .4</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(34)  (35)</t>
+          <t>314443</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(34)  (35)</t>
+          <t>304443</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Outras receitas (despesas), líquidas (835) (482) (686) (458)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>22 .4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>314443</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>304443</t>
-        </is>
-      </c>
+          <t>(835) (482) (686) (458)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1799,7 +1752,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>V ariações cambiais e monetárias, líquidas (671)  (334) (88)  (341)</t>
+          <t>V ariações cambiais e monetárias, líquidas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1817,186 +1770,206 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Resultado de participações em investimentos</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1 0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>29(71)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>(470)  (58)</t>
-        </is>
-      </c>
+          <t>(671)  (334) (88)  (341)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lucro antes dos impostos</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Resultado de participações em investimentos</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1 0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8631.224</t>
+          <t>29(71)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8821.224</t>
+          <t>(470)  (58)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>17 .3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>Lucro antes dos impostos</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8631.224</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8821.224</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Corrente</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>(189)  (451)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>(148)  (444)</t>
-        </is>
-      </c>
+          <t>Imposto de renda e contribuição social</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17 .3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diferido (262)  (435) (267)  (435)</t>
+          <t>Corrente</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(73) 16</t>
+          <t>(189)  (451)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(119) 9</t>
+          <t>(148)  (444)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lucro líquido do período</t>
+          <t>Diferido</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>601789</t>
+          <t>(73) 16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>615789</t>
+          <t>(119) 9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Participação atribuída aos acionistas controladores</t>
+          <t>(262)  (435) (267)  (435)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>615789</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>615789</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Participação atribuída aos acionistas não controladores</t>
+          <t>Lucro líquido do período</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(14)  -</t>
+          <t>601789</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Resultado por ação básico - R$</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
+          <t>Participação atribuída aos acionistas controladores</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,55180,7045</t>
+          <t>615789</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,55180,7045</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Participação atribuída aos acionistas não controladores</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(14)  -</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Resultado por ação básico - R$</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0,55180,7045</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,55180,7045</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Resultado por ação diluído - R$</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>20.4</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>0,54980,7025</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0,54980,7025</t>
         </is>
@@ -2013,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,35 +1995,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Atividade operacional</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Controladora  Consolidado</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr"/>
+          <t>Controladora  Consolidado Período de três meses findos em 31 de m arço de Nota 2025 2024</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Período de três meses findos em 31 de m arço de 2025 2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nan em 31 de m arço de em 31 de m arço de Nota 2025 2024 2025 2024</t>
+          <t>Lucro líquido do período</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>601  789</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Período de três meses findos</t>
+          <t>615789</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Atividade operacional</t>
+          <t>Ajustes:</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2059,668 +2040,676 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lucro líquido do período</t>
+          <t>Imposto de renda e contribuição social</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>601  789</t>
+          <t>17.3 262  435</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>615789</t>
+          <t>267435</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ajustes:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>Depreciação e amortização</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22  242  143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>131139</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social</t>
+          <t>Resultado com alienação / baixas de ativos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17.3 262  435</t>
+          <t>(40) (57)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>267435</t>
+          <t>(37)  (57)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Depreciação e amortização</t>
+          <t>Perdas de crédito esperadas, líquidas de reversão</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22  242  143</t>
+          <t>7 29  15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>131139</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Resultado com alienação / baixas de ativos</t>
+          <t>Resultado de participações em investimentos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(40) (57)</t>
+          <t>(29) 71</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(37)  (57)</t>
+          <t>47058</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perdas de crédito esperadas, líquidas de reversão</t>
+          <t>Apropriação / baixa das bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7 29  15</t>
+          <t>9 171  176</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>169176</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Resultado de participações em investimentos</t>
+          <t>Apropriação de seguros, aluguéis e outros</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(29) 71</t>
+          <t>38  23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>47058</t>
+          <t>3121</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apropriação / baixa das bonificações antecipadas concedidas a clientes</t>
+          <t>Juros, variações cambiais e monetárias, líquidas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9 171  176</t>
+          <t>(19) 443</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>169176</t>
+          <t>(263)  442</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apropriação de seguros, aluguéis e outros</t>
+          <t>Resultado valor justo instrumentos financeiros derivativos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38  23</t>
+          <t>903  20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>47023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Juros, variações cambiais e monetárias, líquidas</t>
+          <t>Despesa com planos de pensão e saúde</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(19) 443</t>
+          <t>19 2733</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(263)  442</t>
+          <t>2733</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Resultado valor justo instrumentos financeiros derivativos</t>
+          <t>Provisão para processos judiciais e administrativos, líquida de reversão</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>903  20</t>
+          <t>25 .1 58  (28)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>47023</t>
+          <t>57(28)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Despesa com planos de pensão e saúde</t>
+          <t>Provisão para Créditos de Descarbonização (CBIOS)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19 2733</t>
+          <t>146  255</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>146255</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Provisão para processos judiciais e administrativos, líquida de reversão</t>
+          <t>Créditos de ICMS - Fim da definitividade - Substituição Tributária</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25 .1 58  (28)</t>
+          <t>3(3)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>57(28)</t>
+          <t>3  (3)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Provisão para Créditos de Descarbonização (CBIOS)</t>
+          <t>Créditos de PIS COFINS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>146  255</t>
+          <t>17  (398) (535)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>146255</t>
+          <t>(398)  (535)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Créditos de ICMS - Fim da definitividade - Substituição Tributária</t>
+          <t>Provisão para perda de recuperabilidade de impostos</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3(3)</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3  (3)</t>
+          <t>-5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Créditos de PIS COFINS</t>
+          <t>Provisão de prêmios e incentivos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17  (398) (535)</t>
+          <t>72  33</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(398)  (535)</t>
+          <t>5133</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Provisão para perda de recuperabilidade de impostos</t>
+          <t>Outros ajustes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-(69)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>(6)  (70)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Provisão de prêmios e incentivos</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>72  33</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5133</t>
-        </is>
-      </c>
+          <t>Redução (aumento) de ativos e aumento (redução) de passivos</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Outros ajustes</t>
+          <t>Contas a receber</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-(69)</t>
+          <t>(497) 60</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(6)  (70)</t>
+          <t>(464)  220</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Redução (aumento) de ativos e aumento (redução) de passivos</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>Estoques</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(432) (1.153)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(383)  (1.019)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Contas a receber</t>
+          <t>Bonificações antecipadas concedidas a clientes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(497) 60</t>
+          <t>9 (132) (35)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(464)  220</t>
+          <t>(130)  (35)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estoques</t>
+          <t>Despesas antecipadas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(432) (1.153)</t>
+          <t>(55) (21)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(383)  (1.019)</t>
+          <t>(47)  (18)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bonificações antecipadas concedidas a clientes</t>
+          <t>Depósitos Judiciais</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9 (132) (35)</t>
+          <t>(13) (13)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(130)  (35)</t>
+          <t>(13)  (13)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Despesas antecipadas</t>
+          <t>Aquisição de Créditos de Descarbonização (CBIOS)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(55) (21)</t>
+          <t>(165)(293)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(47)  (18)</t>
+          <t>(165)  (293)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Depósitos Judiciais</t>
+          <t>Fornecedores</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(13) (13)</t>
+          <t>305  (113)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(13)  (13)</t>
+          <t>228(352)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aquisição de Créditos de Descarbonização (CBIOS)</t>
+          <t>Imposto de renda e contribuição social pagos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(165)(293)</t>
+          <t>(29) (10)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(165)  (293)</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fornecedores</t>
+          <t>Impostos, taxas e contribuições</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>305  (113)</t>
+          <t>37  (65)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>228(352)</t>
+          <t>109(64)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Imposto de renda e contribuição social pagos</t>
+          <t>Planos de pensão e de saúde</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(29) (10)</t>
+          <t>(72) (74)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(72)  (74)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Impostos, taxas e contribuições</t>
+          <t>Pagamento de prêmios e incentivos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>37  (65)</t>
+          <t>(218) (128)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>109(64)</t>
+          <t>(169)  (128)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Planos de pensão e de saúde</t>
+          <t>Pagamentos de processos judiciais e administrativos</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(72) (74)</t>
+          <t>(12) (52)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(72)  (74)</t>
+          <t>(12)  (52)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pagamento de prêmios e incentivos</t>
+          <t>Adiantamentos de clientes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(218) (128)</t>
+          <t>142  3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(169)  (128)</t>
+          <t>1395</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pagamentos de processos judiciais e administrativos</t>
+          <t>Adiantamentos a fornecedores</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(12) (52)</t>
+          <t>12  (108)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(12)  (52)</t>
+          <t>(58)  (108)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Adiantamentos de clientes</t>
+          <t>Outros ativos e passivos, líquidos</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>142  3</t>
+          <t>823</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>3824</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Adiantamentos a fornecedores</t>
+          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12  (108)</t>
+          <t>945  (230)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(58)  (108)</t>
+          <t>755(176)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Outros ativos e passivos, líquidos</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>823</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3824</t>
-        </is>
-      </c>
+          <t>Atividades de investimentos</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades operacionais</t>
+          <t>Desembolsos por aquisições de imobilizados e intangíveis</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>945  (230)</t>
+          <t>(458) (155)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>755(176)</t>
+          <t>(290)  (150)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Atividades de investimentos</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>Desembolsos por aquisições/aportes de participações societárias</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(191) (5)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(5.694)  (168)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Desembolsos por aquisições de imobilizados e intangíveis</t>
+          <t>Recebimentos pela venda de ativos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(458) (155)</t>
+          <t>122  204</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(290)  (150)</t>
+          <t>122179</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Desembolsos por aquisições/aportes de participações societárias</t>
+          <t>Investimentos em TVM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(191) (5)</t>
+          <t>35  (6)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(5.694)  (168)</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Recebimentos pela venda de ativos</t>
+          <t>Dividendos recebidos</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>122  204</t>
+          <t>6  -</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>122179</t>
+          <t>1215</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Investimentos em TVM</t>
+          <t>Recebimentos de principal de empréstimos concedidos</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>35  (6)</t>
+          <t>22  -</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2732,29 +2721,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dividendos recebidos</t>
+          <t>Mútuos concedidos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6  -</t>
+          <t>(103) (10)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>(7)  (10)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Recebimentos de principal de empréstimos concedidos</t>
+          <t>Aquisição de controlada, líquido do caixa adquirido no consolidado</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22  -</t>
+          <t>2.3 (2.812)  -</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2766,340 +2755,297 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mútuos concedidos</t>
+          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(103) (10)</t>
+          <t>(3.379) 28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(7)  (10)</t>
+          <t>(5.857)  (134)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aquisição de controlada, líquido do caixa adquirido no consolidado</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2.3 (2.812)  -</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+          <t>Atividades de financiamentos Financiamentos</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Caixa líquido gerado (utilizado) pelas atividades de investimentos</t>
+          <t>Captações</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(3.379) 28</t>
+          <t>15.1 1.446  149</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(5.857)  (134)</t>
+          <t>1.444-</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Atividades de financiamentos</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t>Amortizações de principal</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15.1 (3.371) (343)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>(2.086)  (246)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Financiamentos</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+          <t>Amortizações de juros</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15.1 (179) (173)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>(110)  (168)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Captações</t>
+          <t>Dividendos e Juros sobre capital próprio pagos</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15.1 1.446  149</t>
+          <t>20.3 (478) (441)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.444-</t>
+          <t>(478)  (441)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amortizações de principal</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>15.1 (3.371) (343)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>(2.086)  (246)</t>
-        </is>
-      </c>
+          <t>Arrendamentos</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Amortizações de juros</t>
+          <t>Pagamentos de principal</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15.1 (179) (173)</t>
+          <t>16.2 (22) (25)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(110)  (168)</t>
+          <t>(121)  (125)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dividendos e Juros sobre capital próprio pagos</t>
+          <t>Pagamentos de juros</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20.3 (478) (441)</t>
+          <t>16.2 (10) (16)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(478)  (441)</t>
+          <t>(9)  (17)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arrendamentos</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t>Depósitos e aplicações restritas</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6 (61)  -</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pagamentos de principal</t>
+          <t>Resgate depósitos e aplicações restritas</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16.2 (22) (25)</t>
+          <t>6  12  -</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(121)  (125)</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pagamentos de juros</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>16.2 (10) (16)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>(9)  (17)</t>
-        </is>
-      </c>
+          <t>Contratos de swaps vinculados a operações de empréstimos</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Depósitos e aplicações restritas</t>
+          <t>Pagamentos de ajustes em contratos</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6 (61)  -</t>
+          <t>(134) (172)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>(128)  (172)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Resgate depósitos e aplicações restritas</t>
+          <t>Recebimentos de ajustes em contratos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6  12  -</t>
+          <t>29311</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>29311</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Contratos de swaps vinculados a operações de empréstimos</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(2.504) (1.010)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(1.195)  (1.158)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pagamentos de ajustes em contratos</t>
+          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(134) (172)</t>
+          <t>(69) 22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(128)  (172)</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Recebimentos de ajustes em contratos</t>
+          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29311</t>
+          <t>(5.007) (1.190)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>29311</t>
+          <t>(6.297)  (1.468)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Caixa líquido (utilizado) nas atividades de financiamentos</t>
+          <t>Caixa e equivalentes de caixa no início do período</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(2.504) (1.010)</t>
+          <t>10.480  6.666</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(1.195)  (1.158)</t>
+          <t>9.3166.157</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Efeito de variação cambial sobre caixas e equivalentes de Caixa</t>
+          <t>Caixa e equivalentes de caixa no fim do período</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(69) 22</t>
+          <t>5.473  5.476</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Variação líquida de caixa e equivalentes de caixa no período</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>(5.007) (1.190)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>(6.297)  (1.468)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Caixa e equivalentes de caixa no início do período</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>10.480  6.666</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>9.3166.157</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Caixa e equivalentes de caixa no fim do período</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>5.473  5.476</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>3.0194.689</t>
         </is>
